--- a/informe/mpx_3vs2puntos3.xlsx
+++ b/informe/mpx_3vs2puntos3.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="6645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Gráfico2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>MDG-a_21_n2000_m200</t>
   </si>
@@ -38,9 +39,6 @@
   </si>
   <si>
     <t>MPX, elitismo 3</t>
-  </si>
-  <si>
-    <t>Coste</t>
   </si>
 </sst>
 </file>
@@ -120,7 +118,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -348,6 +345,245 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9664-43BF-9AE2-438C72EDEEA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1715964703"/>
+        <c:axId val="1715965119"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1715964703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1715965119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1715965119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1715964703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -790,6 +1026,458 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Media</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t> de costes</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES">
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPX, elitismo 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$G$33:$I$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MDG-a_21_n2000_m200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MDG-a_22_n2000_m200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MDG-a_23_n2000_m200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>113203.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113211.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113082.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D86B-4533-B6C2-64F606531530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 puntos, elitismo 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$G$33:$I$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MDG-a_21_n2000_m200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MDG-a_22_n2000_m200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MDG-a_23_n2000_m200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>112476.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112415.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D86B-4533-B6C2-64F606531530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1647736655"/>
+        <c:axId val="1647738735"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1647736655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1647738735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1647738735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1647736655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -870,6 +1558,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1374,6 +2142,1030 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1899,6 +3691,17 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1934,6 +3737,33 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9301758" cy="6087070"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -1959,6 +3789,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2230,15 +4090,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H6:K16"/>
+  <dimension ref="F6:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
+      <selection activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="8:11" x14ac:dyDescent="0.25">
@@ -2288,19 +4151,149 @@
     <row r="12" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="I13" t="s">
-        <v>6</v>
+    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G27" s="2">
+        <v>112931</v>
+      </c>
+      <c r="H27" s="2">
+        <v>113173</v>
+      </c>
+      <c r="I27" s="2">
+        <v>112978</v>
+      </c>
+      <c r="J27" s="2">
+        <v>112586</v>
+      </c>
+      <c r="K27" s="2">
+        <v>112506</v>
+      </c>
+      <c r="L27" s="2">
+        <v>112402</v>
       </c>
     </row>
-    <row r="15" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
+    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G28" s="2">
+        <v>113375</v>
+      </c>
+      <c r="H28" s="2">
+        <v>113335</v>
+      </c>
+      <c r="I28" s="2">
+        <v>113350</v>
+      </c>
+      <c r="J28" s="2">
+        <v>112538</v>
+      </c>
+      <c r="K28" s="2">
+        <v>112210</v>
+      </c>
+      <c r="L28" s="2">
+        <v>112253</v>
+      </c>
+    </row>
+    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G29" s="2">
+        <v>113193</v>
+      </c>
+      <c r="H29" s="2">
+        <v>113402</v>
+      </c>
+      <c r="I29" s="2">
+        <v>113212</v>
+      </c>
+      <c r="J29" s="2">
+        <v>112350</v>
+      </c>
+      <c r="K29" s="2">
+        <v>112564</v>
+      </c>
+      <c r="L29" s="2">
+        <v>112178</v>
+      </c>
+    </row>
+    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G30" s="2">
+        <v>113074</v>
+      </c>
+      <c r="H30" s="2">
+        <v>112677</v>
+      </c>
+      <c r="I30" s="2">
+        <v>113274</v>
+      </c>
+      <c r="J30" s="2">
+        <v>112488</v>
+      </c>
+      <c r="K30" s="2">
+        <v>112444</v>
+      </c>
+      <c r="L30" s="2">
+        <v>112437</v>
+      </c>
+    </row>
+    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G31" s="2">
+        <v>113445</v>
+      </c>
+      <c r="H31" s="2">
+        <v>113470</v>
+      </c>
+      <c r="I31" s="2">
+        <v>112600</v>
+      </c>
+      <c r="J31" s="2">
+        <v>112420</v>
+      </c>
+      <c r="K31" s="2">
+        <v>112352</v>
+      </c>
+      <c r="L31" s="2">
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <f>AVERAGE(G27:G31)</f>
+        <v>113203.6</v>
+      </c>
+      <c r="H34">
+        <f>AVERAGE(H27:H31)</f>
+        <v>113211.4</v>
+      </c>
+      <c r="I34">
+        <f>AVERAGE(I27:I31)</f>
+        <v>113082.8</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>5</v>
+      <c r="G35">
+        <f>AVERAGE(J27:J31)</f>
+        <v>112476.4</v>
+      </c>
+      <c r="H35">
+        <f>AVERAGE(K27:K31)</f>
+        <v>112415.2</v>
+      </c>
+      <c r="I35">
+        <f>AVERAGE(L27:L31)</f>
+        <v>112354</v>
       </c>
     </row>
   </sheetData>
